--- a/biology/Zoologie/Bronzé_d'Amérique/Bronzé_d'Amérique.xlsx
+++ b/biology/Zoologie/Bronzé_d'Amérique/Bronzé_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena hyllus
 Le Bronzé d'Amérique (Lycaena hyllus) est un insecte lépidoptère de la famille des Lycaenidae de la sous-famille des Lycaeninae et du genre Lycaena.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena hyllus a été nommé par Pieter Cramer en 1775.
-Synonymes : Papilio hyllus Cramer, [1775]; Chrysophanus thoe ; Dyar, 1903[1].
-Noms vernaculaires
-Le Bronzé d'Amérique se nomme Bronze Copper en anglais[1].
+Synonymes : Papilio hyllus Cramer, ; Chrysophanus thoe ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Bronzé d'Amérique est un petit papillon d'une envergure de 23 à 48 mm au dessus des ailes présente un fort dimorphisme sexuel. Chez le mâle le dessus est de couleur marron cuivré orné de petits points marron  et chez la femelle les ailes antérieures sont orange cuivré bordées de marron et orné de taches marron. Dans les deux sexes l'aile postérieure est bordé d'orange avec une ligne marginale de points marron.
-Le revers est des antérieures est de couleur orange bordé de gris clair orné de points noirs, celui des postérieures de couleur gris-clair orné de points noirs et d'une bande sub-marginale orange[2],[3],[4].
-Chenille
-La chenille, de couleur vert jaunâtre est ornée d'une bande foncée sur le dos[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bronzé d'Amérique se nomme Bronze Copper en anglais.
 </t>
         </is>
       </c>
@@ -562,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernage
-Il vole en deux générations entre juin et septembre dans le nord et l'ouest de son aire, en trois générations entre mai et novembre ailleurs[4].
-Il hiverne à l'état d'œuf[2].
-Plantes hôtes
-Les plantes hôte de sa chenille sont des Rumex,  Rumex crispus,  Rumex longifolius,  Rumex obtusifolius, Rumex orbicutatus et  Rumex patientia et des Polygonum, Polygonum coccineum et Polygonum natans[1],[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bronzé d'Amérique est un petit papillon d'une envergure de 23 à 48 mm au dessus des ailes présente un fort dimorphisme sexuel. Chez le mâle le dessus est de couleur marron cuivré orné de petits points marron  et chez la femelle les ailes antérieures sont orange cuivré bordées de marron et orné de taches marron. Dans les deux sexes l'aile postérieure est bordé d'orange avec une ligne marginale de points marron.
+Le revers est des antérieures est de couleur orange bordé de gris clair orné de points noirs, celui des postérieures de couleur gris-clair orné de points noirs et d'une bande sub-marginale orange.
 </t>
         </is>
       </c>
@@ -597,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,16 +626,200 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, de couleur vert jaunâtre est ornée d'une bande foncée sur le dos.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bronzé_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bronz%C3%A9_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations entre juin et septembre dans le nord et l'ouest de son aire, en trois générations entre mai et novembre ailleurs.
+Il hiverne à l'état d'œuf.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bronzé_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bronz%C3%A9_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Rumex,  Rumex crispus,  Rumex longifolius,  Rumex obtusifolius, Rumex orbicutatus et  Rumex patientia et des Polygonum, Polygonum coccineum et Polygonum natans,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bronzé_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bronz%C3%A9_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cuivré Bronzé d'Amérique est présent dans le centre de l'Amérique du Nord. Au Canada il est présent sous-forme d'un isolat en Colombie-Britannique et en bordure de la frontière avec les États-Unis au sud de l'Ontario et du Québec. Aux États-Unis il est présent du Montana à l'Océan Atlantique. Ses limites de résidence sont l'est de l'Idaho, le Wyoming, le [Colorado], le Kansas, le Missouri, le Kentucky, la Virginie-Occidentale et la Pennsylvanie. Il y a des isolats dans l'Utah, l'Oklahoma, l'Arkansas et le Mississippi[3],[2].
-Biotope
-Il réside dans les prés humides.
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré Bronzé d'Amérique est présent dans le centre de l'Amérique du Nord. Au Canada il est présent sous-forme d'un isolat en Colombie-Britannique et en bordure de la frontière avec les États-Unis au sud de l'Ontario et du Québec. Aux États-Unis il est présent du Montana à l'Océan Atlantique. Ses limites de résidence sont l'est de l'Idaho, le Wyoming, le [Colorado], le Kansas, le Missouri, le Kentucky, la Virginie-Occidentale et la Pennsylvanie. Il y a des isolats dans l'Utah, l'Oklahoma, l'Arkansas et le Mississippi,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bronzé_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bronz%C3%A9_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prés humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bronzé_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bronz%C3%A9_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
